--- a/data/2023/fid/FID-FINNUG-DE-7.xlsx
+++ b/data/2023/fid/FID-FINNUG-DE-7.xlsx
@@ -2973,13 +2973,13 @@
         <v>32</v>
       </c>
       <c r="U9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="V9" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="W9" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="X9" t="s">
         <v>49</v>
@@ -3050,10 +3050,10 @@
         <v>32</v>
       </c>
       <c r="U10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="V10" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="W10" t="s">
         <v>32</v>
@@ -3204,10 +3204,10 @@
         <v>32</v>
       </c>
       <c r="U12" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="V12" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="W12" t="s">
         <v>32</v>
@@ -3666,13 +3666,13 @@
         <v>32</v>
       </c>
       <c r="U18" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="V18" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="W18" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="X18" t="s">
         <v>49</v>
@@ -3820,13 +3820,13 @@
         <v>32</v>
       </c>
       <c r="U20" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="V20" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="W20" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="X20" t="s">
         <v>49</v>
@@ -3897,13 +3897,13 @@
         <v>32</v>
       </c>
       <c r="U21" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="V21" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="W21" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="X21" t="s">
         <v>49</v>
@@ -4205,13 +4205,13 @@
         <v>32</v>
       </c>
       <c r="U25" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="V25" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="W25" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="X25" t="s">
         <v>49</v>
@@ -6592,13 +6592,13 @@
         <v>32</v>
       </c>
       <c r="U56" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="V56" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="W56" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="X56" t="s">
         <v>49</v>
@@ -9364,13 +9364,13 @@
         <v>32</v>
       </c>
       <c r="U92" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="V92" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="W92" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="X92" t="s">
         <v>49</v>
@@ -10057,13 +10057,13 @@
         <v>32</v>
       </c>
       <c r="U101" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="V101" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="W101" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="X101" t="s">
         <v>49</v>
@@ -10365,13 +10365,13 @@
         <v>32</v>
       </c>
       <c r="U105" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="V105" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="W105" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="X105" t="s">
         <v>49</v>
@@ -11674,13 +11674,13 @@
         <v>32</v>
       </c>
       <c r="U122" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="V122" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="W122" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="X122" t="s">
         <v>49</v>
